--- a/stock_historical_data/1wk/GENESYS.NS.xlsx
+++ b/stock_historical_data/1wk/GENESYS.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1120"/>
+  <dimension ref="A1:R1155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -63013,7 +63013,7 @@
         <v>23</v>
       </c>
       <c r="O1117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1117" t="n">
         <v>0</v>
@@ -63133,7 +63133,9 @@
       <c r="Q1119" t="n">
         <v>0</v>
       </c>
-      <c r="R1119" t="inlineStr"/>
+      <c r="R1119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1120">
       <c r="A1120" s="2" t="n">
@@ -63187,7 +63189,1829 @@
       <c r="Q1120" t="n">
         <v>0</v>
       </c>
-      <c r="R1120" t="inlineStr"/>
+      <c r="R1120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>596.4000244140625</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>632</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>583.0499877929688</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>625.4000244140625</v>
+      </c>
+      <c r="F1121" t="inlineStr"/>
+      <c r="G1121" t="n">
+        <v>1574713</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1121" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1121" t="inlineStr"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>630.9500122070312</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>708.7000122070312</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>607</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>676.1500244140625</v>
+      </c>
+      <c r="F1122" t="inlineStr"/>
+      <c r="G1122" t="n">
+        <v>1975592</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1122" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1122" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1122" t="inlineStr"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>679</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>697.4000244140625</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>613.25</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>616.25</v>
+      </c>
+      <c r="F1123" t="inlineStr"/>
+      <c r="G1123" t="n">
+        <v>1079708</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1123" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1123" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1123" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1123" t="inlineStr"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>614.7000122070312</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>768.7000122070312</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>606.7000122070312</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>731.0499877929688</v>
+      </c>
+      <c r="F1124" t="inlineStr"/>
+      <c r="G1124" t="n">
+        <v>3938248</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1124" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1124" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1124" t="inlineStr"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>733</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>744.7000122070312</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>685</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>721.2000122070312</v>
+      </c>
+      <c r="F1125" t="inlineStr"/>
+      <c r="G1125" t="n">
+        <v>1329168</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1125" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1125" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1125" t="inlineStr"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>694</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>704.9000244140625</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>637.0999755859375</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>683.8499755859375</v>
+      </c>
+      <c r="F1126" t="inlineStr"/>
+      <c r="G1126" t="n">
+        <v>1251603</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1126" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1126" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1126" t="inlineStr"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>676.2000122070312</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>654.0499877929688</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>711.75</v>
+      </c>
+      <c r="F1127" t="inlineStr"/>
+      <c r="G1127" t="n">
+        <v>1230444</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1127" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1127" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1127" t="inlineStr"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>711.75</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>777</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>695.5</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>718.4500122070312</v>
+      </c>
+      <c r="F1128" t="inlineStr"/>
+      <c r="G1128" t="n">
+        <v>3181158</v>
+      </c>
+      <c r="H1128" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1128" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1128" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1128" t="inlineStr"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>719.75</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>834</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>704.2999877929688</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>809.4500122070312</v>
+      </c>
+      <c r="F1129" t="inlineStr"/>
+      <c r="G1129" t="n">
+        <v>6262541</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1129" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1129" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1129" t="inlineStr"/>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>809.4500122070312</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>855.8499755859375</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>790.0499877929688</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>807.0499877929688</v>
+      </c>
+      <c r="F1130" t="inlineStr"/>
+      <c r="G1130" t="n">
+        <v>2227738</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1130" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1130" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1130" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1130" t="inlineStr"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>801</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>825</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>771.4000244140625</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>786.75</v>
+      </c>
+      <c r="F1131" t="inlineStr"/>
+      <c r="G1131" t="n">
+        <v>820355</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1131" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1131" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1131" t="inlineStr"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>793.7000122070312</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>840</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>739.9000244140625</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>777.3499755859375</v>
+      </c>
+      <c r="F1132" t="inlineStr"/>
+      <c r="G1132" t="n">
+        <v>1245713</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1132" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1132" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1132" t="inlineStr"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>784</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>803</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>758.2999877929688</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>776.7000122070312</v>
+      </c>
+      <c r="F1133" t="inlineStr"/>
+      <c r="G1133" t="n">
+        <v>1521936</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1133" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1133" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1133" t="inlineStr"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>776</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>796.7999877929688</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>752.0499877929688</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>761.4000244140625</v>
+      </c>
+      <c r="F1134" t="inlineStr"/>
+      <c r="G1134" t="n">
+        <v>1292980</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1134" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1134" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1134" t="inlineStr"/>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>765.7000122070312</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>835</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>712.25</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>784</v>
+      </c>
+      <c r="F1135" t="inlineStr"/>
+      <c r="G1135" t="n">
+        <v>1229847</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1135" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1135" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1135" t="inlineStr"/>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>790</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>798.8499755859375</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>724.7999877929688</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>728.5999755859375</v>
+      </c>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="n">
+        <v>730234</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1136" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1136" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1136" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1136" t="inlineStr"/>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>729</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>785.5</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>666.3499755859375</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>670.7999877929688</v>
+      </c>
+      <c r="F1137" t="inlineStr"/>
+      <c r="G1137" t="n">
+        <v>1652574</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1137" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1137" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1137" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1137" t="inlineStr"/>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>685.9000244140625</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>830</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>675.75</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>789.2000122070312</v>
+      </c>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="n">
+        <v>6408726</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1138" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1138" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1138" t="inlineStr"/>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>789.1500244140625</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>865</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>755.2000122070312</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>792.8499755859375</v>
+      </c>
+      <c r="F1139" t="inlineStr"/>
+      <c r="G1139" t="n">
+        <v>3373131</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1139" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1139" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1139" t="inlineStr"/>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>792.8499755859375</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>792.8499755859375</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>702.0499877929688</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>737.7999877929688</v>
+      </c>
+      <c r="F1140" t="inlineStr"/>
+      <c r="G1140" t="n">
+        <v>1197423</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1140" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1140" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1140" t="inlineStr"/>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>739.9500122070312</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>774.6500244140625</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>716.9500122070312</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>756.7000122070312</v>
+      </c>
+      <c r="F1141" t="inlineStr"/>
+      <c r="G1141" t="n">
+        <v>1122681</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1141" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1141" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1141" t="inlineStr"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>771.0999755859375</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>924</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>769.0499877929688</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>906.9000244140625</v>
+      </c>
+      <c r="F1142" t="inlineStr"/>
+      <c r="G1142" t="n">
+        <v>4761345</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1142" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>910</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>998.9500122070312</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>900.3499755859375</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>960.5499877929688</v>
+      </c>
+      <c r="F1143" t="inlineStr"/>
+      <c r="G1143" t="n">
+        <v>2152468</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1143" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1143" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1143" t="inlineStr"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>961</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>995</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>929.2999877929688</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>932.7999877929688</v>
+      </c>
+      <c r="F1144" t="inlineStr"/>
+      <c r="G1144" t="n">
+        <v>1132221</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1144" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>934</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>990</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>901.5999755859375</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>913.4000244140625</v>
+      </c>
+      <c r="F1145" t="inlineStr"/>
+      <c r="G1145" t="n">
+        <v>2089262</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>924.75</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>947</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>902.5499877929688</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>918.7999877929688</v>
+      </c>
+      <c r="F1146" t="inlineStr"/>
+      <c r="G1146" t="n">
+        <v>731590</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>918</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>988.7000122070312</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>903.0499877929688</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>945.6500244140625</v>
+      </c>
+      <c r="F1147" t="inlineStr"/>
+      <c r="G1147" t="n">
+        <v>1163935</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1147" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>952</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>1048</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>894.5</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>1003.700012207031</v>
+      </c>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="n">
+        <v>2582210</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>995</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>1026.800048828125</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>927.0499877929688</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>997.4000244140625</v>
+      </c>
+      <c r="F1149" t="inlineStr"/>
+      <c r="G1149" t="n">
+        <v>1251443</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>1000.900024414062</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>1055</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>886.6500244140625</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>896.9000244140625</v>
+      </c>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="n">
+        <v>1527580</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>880</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>888</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>767.9000244140625</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>820.0499877929688</v>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="n">
+        <v>1970055</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>903.0999755859375</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>903.0999755859375</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>837.0999755859375</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>861.7999877929688</v>
+      </c>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="n">
+        <v>1469259</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>862</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>863.8499755859375</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>751.9500122070312</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>773.75</v>
+      </c>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="n">
+        <v>1913130</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>794.9500122070312</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>812.9500122070312</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>657.5999755859375</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>727.5499877929688</v>
+      </c>
+      <c r="F1154" t="inlineStr"/>
+      <c r="G1154" t="n">
+        <v>2951406</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>720</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>779.7000122070312</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>642.4000244140625</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>663.3499755859375</v>
+      </c>
+      <c r="F1155" t="inlineStr"/>
+      <c r="G1155" t="n">
+        <v>1379747</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/GENESYS.NS.xlsx
+++ b/stock_historical_data/1wk/GENESYS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1155"/>
+  <dimension ref="A1:R1164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -63243,7 +63243,9 @@
       <c r="Q1121" t="n">
         <v>0</v>
       </c>
-      <c r="R1121" t="inlineStr"/>
+      <c r="R1121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1122">
       <c r="A1122" s="2" t="n">
@@ -63295,7 +63297,9 @@
       <c r="Q1122" t="n">
         <v>0</v>
       </c>
-      <c r="R1122" t="inlineStr"/>
+      <c r="R1122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1123">
       <c r="A1123" s="2" t="n">
@@ -63347,7 +63351,9 @@
       <c r="Q1123" t="n">
         <v>1</v>
       </c>
-      <c r="R1123" t="inlineStr"/>
+      <c r="R1123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1124">
       <c r="A1124" s="2" t="n">
@@ -63399,7 +63405,9 @@
       <c r="Q1124" t="n">
         <v>0</v>
       </c>
-      <c r="R1124" t="inlineStr"/>
+      <c r="R1124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1125">
       <c r="A1125" s="2" t="n">
@@ -63451,7 +63459,9 @@
       <c r="Q1125" t="n">
         <v>0</v>
       </c>
-      <c r="R1125" t="inlineStr"/>
+      <c r="R1125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1126">
       <c r="A1126" s="2" t="n">
@@ -63503,7 +63513,9 @@
       <c r="Q1126" t="n">
         <v>0</v>
       </c>
-      <c r="R1126" t="inlineStr"/>
+      <c r="R1126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1127">
       <c r="A1127" s="2" t="n">
@@ -63555,7 +63567,9 @@
       <c r="Q1127" t="n">
         <v>0</v>
       </c>
-      <c r="R1127" t="inlineStr"/>
+      <c r="R1127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1128">
       <c r="A1128" s="2" t="n">
@@ -63607,7 +63621,9 @@
       <c r="Q1128" t="n">
         <v>0</v>
       </c>
-      <c r="R1128" t="inlineStr"/>
+      <c r="R1128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1129">
       <c r="A1129" s="2" t="n">
@@ -63659,7 +63675,9 @@
       <c r="Q1129" t="n">
         <v>0</v>
       </c>
-      <c r="R1129" t="inlineStr"/>
+      <c r="R1129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1130">
       <c r="A1130" s="2" t="n">
@@ -63711,7 +63729,9 @@
       <c r="Q1130" t="n">
         <v>0</v>
       </c>
-      <c r="R1130" t="inlineStr"/>
+      <c r="R1130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1131">
       <c r="A1131" s="2" t="n">
@@ -63763,7 +63783,9 @@
       <c r="Q1131" t="n">
         <v>0</v>
       </c>
-      <c r="R1131" t="inlineStr"/>
+      <c r="R1131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1132">
       <c r="A1132" s="2" t="n">
@@ -63815,7 +63837,9 @@
       <c r="Q1132" t="n">
         <v>0</v>
       </c>
-      <c r="R1132" t="inlineStr"/>
+      <c r="R1132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1133">
       <c r="A1133" s="2" t="n">
@@ -63867,7 +63891,9 @@
       <c r="Q1133" t="n">
         <v>0</v>
       </c>
-      <c r="R1133" t="inlineStr"/>
+      <c r="R1133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1134">
       <c r="A1134" s="2" t="n">
@@ -63919,7 +63945,9 @@
       <c r="Q1134" t="n">
         <v>0</v>
       </c>
-      <c r="R1134" t="inlineStr"/>
+      <c r="R1134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1135">
       <c r="A1135" s="2" t="n">
@@ -63971,7 +63999,9 @@
       <c r="Q1135" t="n">
         <v>0</v>
       </c>
-      <c r="R1135" t="inlineStr"/>
+      <c r="R1135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1136">
       <c r="A1136" s="2" t="n">
@@ -64023,7 +64053,9 @@
       <c r="Q1136" t="n">
         <v>2</v>
       </c>
-      <c r="R1136" t="inlineStr"/>
+      <c r="R1136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1137">
       <c r="A1137" s="2" t="n">
@@ -64075,7 +64107,9 @@
       <c r="Q1137" t="n">
         <v>0</v>
       </c>
-      <c r="R1137" t="inlineStr"/>
+      <c r="R1137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1138">
       <c r="A1138" s="2" t="n">
@@ -64127,7 +64161,9 @@
       <c r="Q1138" t="n">
         <v>0</v>
       </c>
-      <c r="R1138" t="inlineStr"/>
+      <c r="R1138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1139">
       <c r="A1139" s="2" t="n">
@@ -64179,7 +64215,9 @@
       <c r="Q1139" t="n">
         <v>0</v>
       </c>
-      <c r="R1139" t="inlineStr"/>
+      <c r="R1139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1140">
       <c r="A1140" s="2" t="n">
@@ -64231,7 +64269,9 @@
       <c r="Q1140" t="n">
         <v>0</v>
       </c>
-      <c r="R1140" t="inlineStr"/>
+      <c r="R1140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1141">
       <c r="A1141" s="2" t="n">
@@ -64283,7 +64323,9 @@
       <c r="Q1141" t="n">
         <v>0</v>
       </c>
-      <c r="R1141" t="inlineStr"/>
+      <c r="R1141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1142">
       <c r="A1142" s="2" t="n">
@@ -64335,7 +64377,9 @@
       <c r="Q1142" t="n">
         <v>0</v>
       </c>
-      <c r="R1142" t="inlineStr"/>
+      <c r="R1142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1143">
       <c r="A1143" s="2" t="n">
@@ -64387,7 +64431,9 @@
       <c r="Q1143" t="n">
         <v>1</v>
       </c>
-      <c r="R1143" t="inlineStr"/>
+      <c r="R1143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1144">
       <c r="A1144" s="2" t="n">
@@ -64439,7 +64485,9 @@
       <c r="Q1144" t="n">
         <v>0</v>
       </c>
-      <c r="R1144" t="inlineStr"/>
+      <c r="R1144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1145">
       <c r="A1145" s="2" t="n">
@@ -64491,7 +64539,9 @@
       <c r="Q1145" t="n">
         <v>0</v>
       </c>
-      <c r="R1145" t="inlineStr"/>
+      <c r="R1145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1146">
       <c r="A1146" s="2" t="n">
@@ -64543,7 +64593,9 @@
       <c r="Q1146" t="n">
         <v>0</v>
       </c>
-      <c r="R1146" t="inlineStr"/>
+      <c r="R1146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1147">
       <c r="A1147" s="2" t="n">
@@ -64595,7 +64647,9 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1148">
       <c r="A1148" s="2" t="n">
@@ -64647,7 +64701,9 @@
       <c r="Q1148" t="n">
         <v>0</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
@@ -64699,7 +64755,9 @@
       <c r="Q1149" t="n">
         <v>0</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1150">
       <c r="A1150" s="2" t="n">
@@ -64751,7 +64809,9 @@
       <c r="Q1150" t="n">
         <v>0</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
@@ -64803,7 +64863,9 @@
       <c r="Q1151" t="n">
         <v>0</v>
       </c>
-      <c r="R1151" t="inlineStr"/>
+      <c r="R1151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
@@ -64855,7 +64917,9 @@
       <c r="Q1152" t="n">
         <v>0</v>
       </c>
-      <c r="R1152" t="inlineStr"/>
+      <c r="R1152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
@@ -64907,7 +64971,9 @@
       <c r="Q1153" t="n">
         <v>0</v>
       </c>
-      <c r="R1153" t="inlineStr"/>
+      <c r="R1153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
@@ -64959,7 +65025,9 @@
       <c r="Q1154" t="n">
         <v>0</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
@@ -65011,7 +65079,477 @@
       <c r="Q1155" t="n">
         <v>0</v>
       </c>
-      <c r="R1155" t="inlineStr"/>
+      <c r="R1155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>678</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>766.75</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>600</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>742.9500122070312</v>
+      </c>
+      <c r="F1156" t="inlineStr"/>
+      <c r="G1156" t="n">
+        <v>2146379</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>748.7999877929688</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>751</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>675.0499877929688</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>703.5</v>
+      </c>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="n">
+        <v>1161712</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>705.2000122070312</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>772.3499755859375</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>675</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>769.7999877929688</v>
+      </c>
+      <c r="F1158" t="inlineStr"/>
+      <c r="G1158" t="n">
+        <v>1089949</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>775</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>798.9000244140625</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>711.5499877929688</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>720.2999877929688</v>
+      </c>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="n">
+        <v>1437754</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>720.2999877929688</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>720.2999877929688</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>609.2000122070312</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>628.4000244140625</v>
+      </c>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="n">
+        <v>1114827</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>530.2999877929688</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>636.7999877929688</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>524</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>631.0499877929688</v>
+      </c>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="n">
+        <v>2133844</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>631.0499877929688</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>704</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>631.0499877929688</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>700.9000244140625</v>
+      </c>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="n">
+        <v>823103</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>709.7000122070312</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>724.0999755859375</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>650.0499877929688</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>669.9000244140625</v>
+      </c>
+      <c r="F1163" t="inlineStr"/>
+      <c r="G1163" t="n">
+        <v>920741</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>663.5499877929688</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>688.2000122070312</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>653.3499755859375</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>656.0999755859375</v>
+      </c>
+      <c r="F1164" t="inlineStr"/>
+      <c r="G1164" t="n">
+        <v>436887</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
